--- a/Data/Database_ecosystem_services.xlsx
+++ b/Data/Database_ecosystem_services.xlsx
@@ -8436,8 +8436,8 @@
       <c r="A98" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="B98" s="43" t="s">
-        <v>377</v>
+      <c r="B98" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>462</v>
